--- a/bernard/experiment/results/results_complete/tap_res_quant_0.99.xlsx
+++ b/bernard/experiment/results/results_complete/tap_res_quant_0.99.xlsx
@@ -12,8 +12,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="real" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delay1.0" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delay0.5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delay0.45" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="delay0.35" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,30 +440,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ftap_1_wu_50</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>bern_wu_50</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ftap_1_wu_0</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.75_wu_0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.5_wu_0</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.25_wu_0</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0_wu_0</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>bern_wu_0</t>
         </is>
@@ -489,12 +477,6 @@
       <c r="E2" t="n">
         <v>50</v>
       </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -506,18 +488,12 @@
         <v>50</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50</v>
-      </c>
-      <c r="G3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -528,21 +504,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647</v>
+        <v>127</v>
       </c>
       <c r="C4" t="n">
-        <v>678</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>716</v>
+        <v>148</v>
       </c>
       <c r="E4" t="n">
-        <v>775</v>
-      </c>
-      <c r="F4" t="n">
-        <v>866</v>
-      </c>
-      <c r="G4" t="n">
         <v>45</v>
       </c>
     </row>
@@ -556,18 +526,12 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
         <v>45</v>
       </c>
     </row>
@@ -578,21 +542,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
+        <v>2492</v>
       </c>
       <c r="C6" t="n">
-        <v>1991</v>
+        <v>2577</v>
       </c>
       <c r="D6" t="n">
-        <v>1953</v>
+        <v>2521</v>
       </c>
       <c r="E6" t="n">
-        <v>1894</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1803</v>
-      </c>
-      <c r="G6" t="n">
         <v>2624</v>
       </c>
     </row>
@@ -603,21 +561,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07173601147776183</v>
+        <v>0.2824858757062147</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06868131868131869</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06527415143603134</v>
+        <v>0.2525252525252525</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.05458515283842795</v>
-      </c>
-      <c r="G7" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -631,18 +583,12 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -653,21 +599,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2424128887223679</v>
+        <v>0.048491790759832</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2540277257399775</v>
+        <v>0.01603665521191294</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2682652678905957</v>
+        <v>0.05545147995503934</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2903709254402398</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.3244660921693518</v>
-      </c>
-      <c r="G9" t="n">
         <v>0.01686024728362683</v>
       </c>
     </row>
@@ -678,22 +618,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6458861833687842</v>
+        <v>0.6944580021732537</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6460239700645348</v>
+        <v>0.6947229302369489</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6461374532760494</v>
+        <v>0.6944580021732537</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6462653980649606</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.6463569880551387</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.6463423256225005</v>
+        <v>0.6947229302369489</v>
       </c>
     </row>
     <row r="11">
@@ -703,21 +637,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1338688085676037</v>
+        <v>0.4405286343612335</v>
       </c>
       <c r="C11" t="n">
-        <v>0.12853470437018</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1225490196078431</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1142857142857143</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.10351966873706</v>
-      </c>
-      <c r="G11" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -728,21 +656,15 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9282639885222381</v>
+        <v>0.7070516844528144</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9313186813186813</v>
+        <v>0.5383227242031354</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9347258485639687</v>
+        <v>0.7474747474747473</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9393939393939394</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.9454148471615721</v>
-      </c>
-      <c r="G12" t="n">
         <v>0.570857007957476</v>
       </c>
     </row>
@@ -757,7 +679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,30 +690,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ftap_1_wu_50</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>bern_wu_50</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ftap_1_wu_0</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.75_wu_0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.5_wu_0</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.25_wu_0</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0_wu_0</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>bern_wu_0</t>
         </is>
@@ -804,10 +716,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
         <v>50</v>
@@ -815,12 +727,6 @@
       <c r="E2" t="n">
         <v>50</v>
       </c>
-      <c r="F2" t="n">
-        <v>50</v>
-      </c>
-      <c r="G2" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -829,22 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
-      </c>
-      <c r="F3" t="n">
-        <v>48</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -854,22 +754,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>274</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>298</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>347</v>
-      </c>
-      <c r="F4" t="n">
-        <v>417</v>
-      </c>
-      <c r="G4" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -879,22 +773,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -904,22 +792,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1258</v>
+        <v>1431</v>
       </c>
       <c r="C6" t="n">
-        <v>1213</v>
+        <v>1404</v>
       </c>
       <c r="D6" t="n">
-        <v>1189</v>
+        <v>1459</v>
       </c>
       <c r="E6" t="n">
-        <v>1140</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1070</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1446</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="7">
@@ -929,22 +811,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1702898550724638</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1490683229813665</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="D7" t="n">
-        <v>0.138728323699422</v>
+        <v>0.625</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1215189873417721</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1032258064516129</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8">
@@ -954,22 +830,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.96</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="D8" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
@@ -979,22 +849,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1540013449899126</v>
+        <v>0.00625</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1842636180228648</v>
+        <v>0.025</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2004034969737727</v>
+        <v>0.02014775016789792</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2333557498318763</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.2804303967720242</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.02757229320780094</v>
+        <v>0.02686366689053056</v>
       </c>
     </row>
     <row r="10">
@@ -1004,22 +868,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6458861833687842</v>
+        <v>0.6944580021732537</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6460239700645348</v>
+        <v>0.6947229302369489</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6461374532760494</v>
+        <v>0.6944580021732537</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6462653980649606</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.6463569880551387</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.6463423256225005</v>
+        <v>0.6947229302369489</v>
       </c>
     </row>
     <row r="11">
@@ -1029,22 +887,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2883435582822085</v>
+        <v>0.9158878504672897</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2157303370786517</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.1864077669902913</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12">
@@ -1054,22 +906,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8195670765807572</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8451426391396138</v>
+        <v>0.5544983556807068</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8558841901819526</v>
+        <v>0.375</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8737618476024194</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.8927654404364637</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.583170245782498</v>
+        <v>0.5808506411066303</v>
       </c>
     </row>
   </sheetData>
@@ -1083,7 +929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1094,30 +940,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ftap_1_wu_50</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>bern_wu_50</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ftap_1_wu_0</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.75_wu_0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.5_wu_0</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.25_wu_0</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0_wu_0</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>bern_wu_0</t>
         </is>
@@ -1130,10 +966,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21744</v>
+        <v>21736</v>
       </c>
       <c r="C2" t="n">
-        <v>21744</v>
+        <v>21736</v>
       </c>
       <c r="D2" t="n">
         <v>21744</v>
@@ -1141,12 +977,6 @@
       <c r="E2" t="n">
         <v>21744</v>
       </c>
-      <c r="F2" t="n">
-        <v>21744</v>
-      </c>
-      <c r="G2" t="n">
-        <v>21744</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1155,22 +985,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8714</v>
+        <v>8004</v>
       </c>
       <c r="C3" t="n">
-        <v>8715</v>
+        <v>15860</v>
       </c>
       <c r="D3" t="n">
-        <v>8716</v>
+        <v>8009</v>
       </c>
       <c r="E3" t="n">
-        <v>8716</v>
-      </c>
-      <c r="F3" t="n">
-        <v>8716</v>
-      </c>
-      <c r="G3" t="n">
-        <v>15867</v>
+        <v>15868</v>
       </c>
     </row>
     <row r="4">
@@ -1180,22 +1004,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2121</v>
+        <v>1818</v>
       </c>
       <c r="C4" t="n">
-        <v>2121</v>
+        <v>5870</v>
       </c>
       <c r="D4" t="n">
-        <v>2121</v>
+        <v>1826</v>
       </c>
       <c r="E4" t="n">
-        <v>2121</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2122</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5877</v>
+        <v>5876</v>
       </c>
     </row>
     <row r="5">
@@ -1205,22 +1023,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13030</v>
+        <v>13732</v>
       </c>
       <c r="C5" t="n">
-        <v>13029</v>
+        <v>5876</v>
       </c>
       <c r="D5" t="n">
-        <v>13028</v>
+        <v>13735</v>
       </c>
       <c r="E5" t="n">
-        <v>13028</v>
-      </c>
-      <c r="F5" t="n">
-        <v>13028</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5877</v>
+        <v>5876</v>
       </c>
     </row>
     <row r="6">
@@ -1230,22 +1042,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77027</v>
+        <v>77288</v>
       </c>
       <c r="C6" t="n">
-        <v>77027</v>
+        <v>73236</v>
       </c>
       <c r="D6" t="n">
-        <v>77027</v>
+        <v>77322</v>
       </c>
       <c r="E6" t="n">
-        <v>77027</v>
-      </c>
-      <c r="F6" t="n">
-        <v>77026</v>
-      </c>
-      <c r="G6" t="n">
-        <v>73271</v>
+        <v>73272</v>
       </c>
     </row>
     <row r="7">
@@ -1255,22 +1061,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8042455006922012</v>
+        <v>0.8149053145998778</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8042635658914729</v>
+        <v>0.7298665439484584</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8042816277567593</v>
+        <v>0.8143365531265887</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8042816277567593</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.8042074183428677</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.7297185430463576</v>
+        <v>0.7297645327446652</v>
       </c>
     </row>
     <row r="8">
@@ -1280,22 +1080,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4007542310522443</v>
+        <v>0.368237026131763</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4008002207505519</v>
+        <v>0.7296650717703349</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4008462104488594</v>
+        <v>0.368331493745401</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4008462104488594</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.4008462104488594</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.7297185430463576</v>
+        <v>0.7297645327446652</v>
       </c>
     </row>
     <row r="9">
@@ -1305,22 +1099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02679789760954162</v>
+        <v>0.02298182185927743</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02679789760954162</v>
+        <v>0.07420423229590675</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02679789760954162</v>
+        <v>0.02307070298680952</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02679789760954162</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.02681053216758478</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.07425329761964926</v>
+        <v>0.07424066306160611</v>
       </c>
     </row>
     <row r="10">
@@ -1330,22 +1118,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6458861833687842</v>
+        <v>0.6944580021732537</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6460239700645348</v>
+        <v>0.6947229302369489</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6461374532760494</v>
+        <v>0.6944580021732537</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6462653980649606</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.6463569880551387</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.6463423256225005</v>
+        <v>0.6947229302369489</v>
       </c>
     </row>
     <row r="11">
@@ -1355,22 +1137,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5349458239970534</v>
+        <v>0.5072564801318207</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5349907918968693</v>
+        <v>0.7297657939538948</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5350357570363095</v>
+        <v>0.5072358212736313</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5350357570363095</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.5350193358295992</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.7297185430463576</v>
+        <v>0.7297645327446652</v>
       </c>
     </row>
     <row r="12">
@@ -1380,22 +1156,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.340146638760899</v>
+        <v>0.3444525995899777</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3401089278710164</v>
+        <v>0.3141920161817572</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3400759754747351</v>
+        <v>0.3457243356753484</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3400759754747351</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.3401369215427555</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.314737366400954</v>
+        <v>0.3147220061256978</v>
       </c>
     </row>
   </sheetData>
@@ -1409,7 +1179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1420,30 +1190,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ftap_1_wu_50</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>bern_wu_50</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ftap_1_wu_0</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.75_wu_0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.5_wu_0</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.25_wu_0</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0_wu_0</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>bern_wu_0</t>
         </is>
@@ -1456,10 +1216,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C2" t="n">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="D2" t="n">
         <v>990</v>
@@ -1467,12 +1227,6 @@
       <c r="E2" t="n">
         <v>990</v>
       </c>
-      <c r="F2" t="n">
-        <v>990</v>
-      </c>
-      <c r="G2" t="n">
-        <v>990</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1481,22 +1235,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="C3" t="n">
-        <v>479</v>
+        <v>360</v>
       </c>
       <c r="D3" t="n">
-        <v>581</v>
+        <v>378</v>
       </c>
       <c r="E3" t="n">
-        <v>701</v>
-      </c>
-      <c r="F3" t="n">
-        <v>866</v>
-      </c>
-      <c r="G3" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
@@ -1506,22 +1254,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>687</v>
+        <v>658</v>
       </c>
       <c r="C4" t="n">
-        <v>873</v>
+        <v>618</v>
       </c>
       <c r="D4" t="n">
-        <v>1106</v>
+        <v>669</v>
       </c>
       <c r="E4" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1669</v>
-      </c>
-      <c r="G4" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5">
@@ -1531,22 +1273,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="C5" t="n">
-        <v>511</v>
+        <v>624</v>
       </c>
       <c r="D5" t="n">
-        <v>409</v>
+        <v>612</v>
       </c>
       <c r="E5" t="n">
-        <v>289</v>
-      </c>
-      <c r="F5" t="n">
-        <v>124</v>
-      </c>
-      <c r="G5" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="6">
@@ -1556,22 +1292,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4342</v>
+        <v>4327</v>
       </c>
       <c r="C6" t="n">
-        <v>4156</v>
+        <v>4367</v>
       </c>
       <c r="D6" t="n">
-        <v>3923</v>
+        <v>4360</v>
       </c>
       <c r="E6" t="n">
-        <v>3672</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3360</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4402</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="7">
@@ -1581,22 +1311,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3615241635687733</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3542899408284024</v>
+        <v>0.3680981595092024</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3443983402489627</v>
+        <v>0.3610315186246418</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3406219630709427</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.3416173570019724</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.3656565656565657</v>
       </c>
     </row>
     <row r="8">
@@ -1606,22 +1330,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3929292929292929</v>
+        <v>0.3821138211382114</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4838383838383838</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5868686868686869</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7080808080808081</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.8747474747474747</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.3656565656565657</v>
       </c>
     </row>
     <row r="9">
@@ -1631,22 +1349,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1366076754822032</v>
+        <v>0.1319959879638917</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1735931596738914</v>
+        <v>0.1239719157472417</v>
       </c>
       <c r="D9" t="n">
-        <v>0.219924438258103</v>
+        <v>0.133028435076556</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2698349572479618</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.3318751242791808</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.1246768741300457</v>
+        <v>0.1248757208192484</v>
       </c>
     </row>
     <row r="10">
@@ -1656,22 +1368,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6458861833687842</v>
+        <v>0.6944580021732537</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6460239700645348</v>
+        <v>0.6947229302369489</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6461374532760494</v>
+        <v>0.6944580021732537</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6462653980649606</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.6463569880551387</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.6463423256225005</v>
+        <v>0.6947229302369489</v>
       </c>
     </row>
     <row r="11">
@@ -1681,22 +1387,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3765730880929332</v>
+        <v>0.3726461843409316</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4090520922288642</v>
+        <v>0.3669724770642201</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4340679865521106</v>
+        <v>0.3711340206185567</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4599737532808399</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.4913475177304965</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.3656565656565657</v>
       </c>
     </row>
     <row r="12">
@@ -1706,22 +1406,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5399305058965248</v>
+        <v>0.5338280843537287</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5540812942332768</v>
+        <v>0.5264836958640515</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5778524053925208</v>
+        <v>0.5391509767396047</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6050003426323116</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.6360682776718634</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.5312528520068494</v>
+        <v>0.5316622342277069</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1746,30 +1440,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ftap_1_wu_50</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>bern_wu_50</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ftap_1_wu_0</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.75_wu_0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.5_wu_0</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.25_wu_0</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0_wu_0</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>bern_wu_0</t>
         </is>
@@ -1782,10 +1466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C2" t="n">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="D2" t="n">
         <v>990</v>
@@ -1793,12 +1477,6 @@
       <c r="E2" t="n">
         <v>990</v>
       </c>
-      <c r="F2" t="n">
-        <v>990</v>
-      </c>
-      <c r="G2" t="n">
-        <v>990</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1807,21 +1485,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C3" t="n">
-        <v>327</v>
+        <v>258</v>
       </c>
       <c r="D3" t="n">
-        <v>386</v>
+        <v>256</v>
       </c>
       <c r="E3" t="n">
-        <v>477</v>
-      </c>
-      <c r="F3" t="n">
-        <v>577</v>
-      </c>
-      <c r="G3" t="n">
         <v>260</v>
       </c>
     </row>
@@ -1832,21 +1504,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>743</v>
+        <v>703</v>
       </c>
       <c r="C4" t="n">
-        <v>945</v>
+        <v>719</v>
       </c>
       <c r="D4" t="n">
-        <v>1182</v>
+        <v>714</v>
       </c>
       <c r="E4" t="n">
-        <v>1453</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1785</v>
-      </c>
-      <c r="G4" t="n">
         <v>730</v>
       </c>
     </row>
@@ -1857,21 +1523,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="C5" t="n">
-        <v>663</v>
+        <v>726</v>
       </c>
       <c r="D5" t="n">
-        <v>604</v>
+        <v>734</v>
       </c>
       <c r="E5" t="n">
-        <v>513</v>
-      </c>
-      <c r="F5" t="n">
-        <v>413</v>
-      </c>
-      <c r="G5" t="n">
         <v>730</v>
       </c>
     </row>
@@ -1882,21 +1542,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4286</v>
+        <v>4282</v>
       </c>
       <c r="C6" t="n">
-        <v>4084</v>
+        <v>4266</v>
       </c>
       <c r="D6" t="n">
-        <v>3847</v>
+        <v>4315</v>
       </c>
       <c r="E6" t="n">
-        <v>3576</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3244</v>
-      </c>
-      <c r="G6" t="n">
         <v>4299</v>
       </c>
     </row>
@@ -1907,21 +1561,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2628968253968254</v>
+        <v>0.2654127481713688</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2570754716981132</v>
+        <v>0.2640736949846469</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2461734693877551</v>
+        <v>0.2639175257731959</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2471502590673575</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2442845046570703</v>
-      </c>
-      <c r="G7" t="n">
         <v>0.2626262626262627</v>
       </c>
     </row>
@@ -1932,21 +1580,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2676767676767677</v>
+        <v>0.258130081300813</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3303030303030303</v>
+        <v>0.2621951219512195</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3898989898989899</v>
+        <v>0.2585858585858586</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4818181818181818</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.5828282828282828</v>
-      </c>
-      <c r="G8" t="n">
         <v>0.2626262626262627</v>
       </c>
     </row>
@@ -1957,21 +1599,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1477430900775502</v>
+        <v>0.1410230692076229</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1879101212964804</v>
+        <v>0.1442326980942829</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2350367866375025</v>
+        <v>0.1419765360906741</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2889242394114138</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.3549413402266852</v>
-      </c>
-      <c r="G9" t="n">
         <v>0.1451580831179161</v>
       </c>
     </row>
@@ -1982,22 +1618,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6458861833687842</v>
+        <v>0.6944580021732537</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6460239700645348</v>
+        <v>0.6947229302369489</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6461374532760494</v>
+        <v>0.6944580021732537</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6462653980649606</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.6463569880551387</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.6463423256225005</v>
+        <v>0.6947229302369489</v>
       </c>
     </row>
     <row r="11">
@@ -2007,21 +1637,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2652652652652653</v>
+        <v>0.26172076249356</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2891246684350133</v>
+        <v>0.2631310555838857</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3017982799061767</v>
+        <v>0.2612244897959183</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3267123287671233</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.3442720763723151</v>
-      </c>
-      <c r="G11" t="n">
         <v>0.2626262626262627</v>
       </c>
     </row>
@@ -2032,674 +1656,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5803183380532833</v>
+        <v>0.5733261678299058</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5990336370614431</v>
+        <v>0.5756722371549983</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6248020013950772</v>
+        <v>0.5777040850690044</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6430079964838029</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.6705941873518139</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.5798256902718582</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_1_wu_0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.75_wu_0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.5_wu_0</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.25_wu_0</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0_wu_0</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>bern_wu_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>traces</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>990</v>
-      </c>
-      <c r="C2" t="n">
-        <v>990</v>
-      </c>
-      <c r="D2" t="n">
-        <v>990</v>
-      </c>
-      <c r="E2" t="n">
-        <v>990</v>
-      </c>
-      <c r="F2" t="n">
-        <v>990</v>
-      </c>
-      <c r="G2" t="n">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>253</v>
-      </c>
-      <c r="C3" t="n">
-        <v>306</v>
-      </c>
-      <c r="D3" t="n">
-        <v>374</v>
-      </c>
-      <c r="E3" t="n">
-        <v>455</v>
-      </c>
-      <c r="F3" t="n">
-        <v>558</v>
-      </c>
-      <c r="G3" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>fp</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>748</v>
-      </c>
-      <c r="C4" t="n">
-        <v>950</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1188</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1470</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1806</v>
-      </c>
-      <c r="G4" t="n">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>fn</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>737</v>
-      </c>
-      <c r="C5" t="n">
-        <v>684</v>
-      </c>
-      <c r="D5" t="n">
-        <v>616</v>
-      </c>
-      <c r="E5" t="n">
-        <v>535</v>
-      </c>
-      <c r="F5" t="n">
-        <v>432</v>
-      </c>
-      <c r="G5" t="n">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>tn</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4281</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4079</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3841</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3559</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3223</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4289</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>prec</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.2527472527472527</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2436305732484076</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.2394366197183098</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2360406091370559</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.2525252525252525</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>tpr_recall</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.2555555555555555</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3090909090909091</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.3777777777777778</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.4595959595959596</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.5636363636363636</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.2525252525252525</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>fpr</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.1487373235235633</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1889043547424935</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.2362298667727182</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.2923046331278584</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.3591171206999403</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.1471465500099423</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>auc</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.6458861833687842</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6460239700645348</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.6461374532760494</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.6462653980649606</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.6463569880551387</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.6463423256225005</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>fscore</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.2541436464088397</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2724844167408726</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.293103448275862</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.3121783876500858</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.332737030411449</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.2525252525252525</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>med</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.5828544114392615</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6049092020465406</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.6274760503888283</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.6473710533202151</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.6741364802157697</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.5843645739937214</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_1_wu_0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.75_wu_0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.5_wu_0</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0.25_wu_0</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ftap_0_wu_0</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>bern_wu_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>traces</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>990</v>
-      </c>
-      <c r="C2" t="n">
-        <v>990</v>
-      </c>
-      <c r="D2" t="n">
-        <v>990</v>
-      </c>
-      <c r="E2" t="n">
-        <v>990</v>
-      </c>
-      <c r="F2" t="n">
-        <v>990</v>
-      </c>
-      <c r="G2" t="n">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>221</v>
-      </c>
-      <c r="C3" t="n">
-        <v>280</v>
-      </c>
-      <c r="D3" t="n">
-        <v>352</v>
-      </c>
-      <c r="E3" t="n">
-        <v>413</v>
-      </c>
-      <c r="F3" t="n">
-        <v>519</v>
-      </c>
-      <c r="G3" t="n">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>fp</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>751</v>
-      </c>
-      <c r="C4" t="n">
-        <v>960</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1205</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1499</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1831</v>
-      </c>
-      <c r="G4" t="n">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>fn</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>769</v>
-      </c>
-      <c r="C5" t="n">
-        <v>710</v>
-      </c>
-      <c r="D5" t="n">
-        <v>638</v>
-      </c>
-      <c r="E5" t="n">
-        <v>577</v>
-      </c>
-      <c r="F5" t="n">
-        <v>471</v>
-      </c>
-      <c r="G5" t="n">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>tn</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4278</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4069</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3824</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3530</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3198</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4264</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>prec</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.2273662551440329</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2258064516129032</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.2260757867694284</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2160041841004184</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2208510638297872</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.2272727272727273</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>tpr_recall</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.2232323232323232</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2828282828282828</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.3555555555555556</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.4171717171717172</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.5242424242424243</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.2272727272727273</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>fpr</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.1493338635911712</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1908928216345198</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.2396102604891629</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.2980711871147345</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.364088287930006</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.1521177172400079</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>auc</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.6458861833687842</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6460239700645348</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.6461374532760494</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.6462653980649606</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.6463569880551387</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.6463423256225005</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>fscore</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.2252803261977574</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2511210762331839</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.276403612092658</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.284631288766368</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.3107784431137725</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.2272727272727273</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>med</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.5907120487455839</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6079035568381675</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.6302440326923986</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.6560912808929423</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.6805525373977058</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.5914496686274606</v>
+        <v>0.5799345435327842</v>
       </c>
     </row>
   </sheetData>
